--- a/alunos_turmas.xlsx
+++ b/alunos_turmas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EM45-1A-I" sheetId="1" state="visible" r:id="rId3"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t xml:space="preserve">Alunos das Turmas</t>
   </si>
@@ -62,6 +62,9 @@
     <t xml:space="preserve">Marcelo</t>
   </si>
   <si>
+    <t xml:space="preserve">Rian</t>
+  </si>
+  <si>
     <t xml:space="preserve">Daniel Verissimo</t>
   </si>
   <si>
@@ -72,15 +75,19 @@
   </si>
   <si>
     <t xml:space="preserve">João</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claudiney</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -160,7 +167,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -182,6 +189,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -310,8 +321,8 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -419,6 +430,17 @@
       </c>
       <c r="C9" s="5" t="n">
         <v>36186</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>587</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>36705</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -443,9 +465,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="143" zoomScaleNormal="143" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -520,7 +542,7 @@
         <v>54654564</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>33348</v>
@@ -531,7 +553,7 @@
         <v>35876455</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>34778</v>
@@ -542,7 +564,7 @@
         <v>87899645</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>35115</v>
@@ -553,10 +575,21 @@
         <v>79866454</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="5" t="n">
         <v>47655</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>74697886</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>45305</v>
       </c>
     </row>
   </sheetData>
